--- a/ru/files/Иконки погоды.xlsx
+++ b/ru/files/Иконки погоды.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Weathe-servic_instruction\ru\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF0E3D-C114-4B1F-B277-BE1628D9C70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32F207-5FC6-4A0F-823B-D6382FC99596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D19CDB41-B217-4808-88C7-99747021D5D5}"/>
   </bookViews>
@@ -177,11 +177,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -660,7 +663,7 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -671,7 +674,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -682,7 +685,7 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
     </row>
@@ -693,7 +696,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -701,7 +704,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -709,7 +712,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -717,7 +720,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -725,7 +728,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -736,7 +739,7 @@
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -747,7 +750,7 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -758,7 +761,7 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>8</v>
       </c>
     </row>
@@ -766,7 +769,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -777,7 +780,7 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -785,7 +788,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +799,7 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/ru/files/Иконки погоды.xlsx
+++ b/ru/files/Иконки погоды.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Weathe-servic_instruction\ru\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32F207-5FC6-4A0F-823B-D6382FC99596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7474AA18-6608-41DA-9D3E-E1B067D979B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D19CDB41-B217-4808-88C7-99747021D5D5}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Icon</t>
   </si>
@@ -131,14 +131,50 @@
     <t>Пасмурно</t>
   </si>
   <si>
-    <t>Новый в приложении</t>
+    <t>Иконка в Zepp</t>
+  </si>
+  <si>
+    <t>6, 8</t>
+  </si>
+  <si>
+    <t>23, 24</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>3, 13</t>
+  </si>
+  <si>
+    <t>10, 17</t>
+  </si>
+  <si>
+    <t>7, 9</t>
+  </si>
+  <si>
+    <t>16, 19</t>
+  </si>
+  <si>
+    <t>11, 19</t>
+  </si>
+  <si>
+    <t>8, 2</t>
+  </si>
+  <si>
+    <t>Номер в приложении</t>
+  </si>
+  <si>
+    <t>https://openweathermap.org/weather-conditions</t>
+  </si>
+  <si>
+    <t>https://developer.accuweather.com/weather-icons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +187,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -174,10 +219,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -185,8 +231,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,144 +550,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336F162F-ED1D-48AB-A1A0-85CD2121ED79}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C12:C13 C8" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B3B75F-B27E-4062-B537-91CBB3AB3A84}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,15 +903,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{D3F3926C-54C4-4547-B50F-C85EB37FB120}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8657E8D4-C40E-4394-BFFC-DF8607B6D0E9}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -829,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,8 +1412,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1" xr:uid="{7CBA21B7-34F9-48A4-9FD5-FB5CA44D1C6D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>